--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Nigeria\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65283961-D296-4C4F-A30F-A46956A9A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCA1A73-F3C1-4701-9EBA-39C60ACCF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>type</t>
   </si>
@@ -94,9 +92,6 @@
     <t>s_district</t>
   </si>
   <si>
-    <t>District</t>
-  </si>
-  <si>
     <t>region = ${s_region}</t>
   </si>
   <si>
@@ -106,9 +101,6 @@
     <t>s_community</t>
   </si>
   <si>
-    <t>Village</t>
-  </si>
-  <si>
     <t>High risk village / Second line village</t>
   </si>
   <si>
@@ -118,9 +110,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>s_site</t>
-  </si>
-  <si>
     <t>Catching site</t>
   </si>
   <si>
@@ -310,9 +299,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
@@ -427,10 +413,73 @@
     <t>CHONGWOM</t>
   </si>
   <si>
-    <t>ng_oncho_bsc_202304_1_capture</t>
-  </si>
-  <si>
-    <t>(2023 April) - 1. Human Landing Catches</t>
+    <t>ng_oncho_bsc_202306_1_capture</t>
+  </si>
+  <si>
+    <t>(2023 June) - 1. Human Landing Catches</t>
+  </si>
+  <si>
+    <t>BANGU (AKKO)</t>
+  </si>
+  <si>
+    <t>GARKO</t>
+  </si>
+  <si>
+    <t>KULANI / DEGRE /SIKKAM</t>
+  </si>
+  <si>
+    <t>MWONA</t>
+  </si>
+  <si>
+    <t>BILLIRI SOUTH</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>GWANI / SHINGA / WADE</t>
+  </si>
+  <si>
+    <t>JAGALI NORTH</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>High risk village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second line village </t>
+  </si>
+  <si>
+    <t>h_s</t>
+  </si>
+  <si>
+    <t>s_village_type</t>
+  </si>
+  <si>
+    <t>Village type</t>
+  </si>
+  <si>
+    <t>select_one h_s</t>
+  </si>
+  <si>
+    <t>s_river_type</t>
+  </si>
+  <si>
+    <t>River type</t>
+  </si>
+  <si>
+    <t>Main River</t>
+  </si>
+  <si>
+    <t>Tributary</t>
+  </si>
+  <si>
+    <t>m_t</t>
+  </si>
+  <si>
+    <t>select_one m_t</t>
   </si>
 </sst>
 </file>
@@ -539,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,6 +628,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,13 +922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -958,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
@@ -971,22 +1030,20 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1">
       <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="13"/>
@@ -997,24 +1054,26 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="A5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -1024,13 +1083,13 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
@@ -1046,16 +1105,16 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1069,17 +1128,15 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="16"/>
@@ -1091,40 +1148,45 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
       <c r="K10" s="9"/>
@@ -1132,81 +1194,77 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6" t="s">
         <v>16</v>
@@ -1216,19 +1274,19 @@
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="6" t="s">
@@ -1239,19 +1297,19 @@
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="6" t="s">
@@ -1262,45 +1320,51 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
-      <c r="A18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="13"/>
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>64</v>
+      <c r="A19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1314,10 +1378,10 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1330,9 +1394,21 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1">
-      <c r="B21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="G21"/>
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="B22" s="14"/>
@@ -1340,9 +1416,14 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1">
-      <c r="B23"/>
-      <c r="D23"/>
+      <c r="B23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="G23"/>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1">
+      <c r="B24"/>
+      <c r="D24"/>
+      <c r="G24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1352,11 +1433,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1370,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1379,785 +1460,948 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>68</v>
+      <c r="A20" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>94</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>94</v>
+      <c r="A23" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>69</v>
+      <c r="A24" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:B90">
-    <sortCondition ref="B45:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:B96">
+    <sortCondition ref="B51:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
     <col min="2" max="2" width="34.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2">
-        <v>20210625</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCA1A73-F3C1-4701-9EBA-39C60ACCF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9309E28-63ED-4063-88B4-9F21DA926BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -305,144 +305,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>GOMBE</t>
-  </si>
-  <si>
-    <t>AKKO</t>
-  </si>
-  <si>
-    <t>BALANGA</t>
-  </si>
-  <si>
-    <t>BILLIRI</t>
-  </si>
-  <si>
-    <t>DUKKU</t>
-  </si>
-  <si>
-    <t>NAFADA</t>
-  </si>
-  <si>
-    <t>FUNAKAYE</t>
-  </si>
-  <si>
-    <t>SHOMGOM</t>
-  </si>
-  <si>
-    <t>KALTUNGO</t>
-  </si>
-  <si>
-    <t>KWAMI</t>
-  </si>
-  <si>
-    <t>YAMALTU/DEBA</t>
-  </si>
-  <si>
-    <t>KOMBANI</t>
-  </si>
-  <si>
-    <t>KUMO</t>
-  </si>
-  <si>
-    <t>WURO DOLE</t>
-  </si>
-  <si>
-    <t>BANGU</t>
-  </si>
-  <si>
-    <t>CHUM</t>
-  </si>
-  <si>
-    <t>DADIYA</t>
-  </si>
-  <si>
-    <t>GALENGU</t>
-  </si>
-  <si>
-    <t>KULKUL</t>
-  </si>
-  <si>
-    <t>DOKORO</t>
-  </si>
-  <si>
-    <t>GARIN BULAMO</t>
-  </si>
-  <si>
-    <t>BANA</t>
-  </si>
-  <si>
-    <t>WAKALU</t>
-  </si>
-  <si>
-    <t>WURO BONGO</t>
-  </si>
-  <si>
-    <t>MAMUDA</t>
-  </si>
-  <si>
-    <t>MALARI</t>
-  </si>
-  <si>
-    <t>POPANDI</t>
-  </si>
-  <si>
-    <t>TULA WANGE</t>
-  </si>
-  <si>
-    <t>BULTURI</t>
-  </si>
-  <si>
-    <t>GUDOKO</t>
-  </si>
-  <si>
-    <t>JIGAWA</t>
-  </si>
-  <si>
-    <t>JIGAWA KUKA</t>
-  </si>
-  <si>
-    <t>MADA</t>
-  </si>
-  <si>
-    <t>DWAJA</t>
-  </si>
-  <si>
-    <t>HINNA</t>
-  </si>
-  <si>
-    <t>CHONGWOM</t>
-  </si>
-  <si>
-    <t>ng_oncho_bsc_202306_1_capture</t>
-  </si>
-  <si>
-    <t>(2023 June) - 1. Human Landing Catches</t>
-  </si>
-  <si>
-    <t>BANGU (AKKO)</t>
-  </si>
-  <si>
-    <t>GARKO</t>
-  </si>
-  <si>
-    <t>KULANI / DEGRE /SIKKAM</t>
-  </si>
-  <si>
-    <t>MWONA</t>
-  </si>
-  <si>
-    <t>BILLIRI SOUTH</t>
-  </si>
-  <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>GWANI / SHINGA / WADE</t>
-  </si>
-  <si>
-    <t>JAGALI NORTH</t>
-  </si>
-  <si>
     <t>LGA</t>
   </si>
   <si>
@@ -480,6 +342,132 @@
   </si>
   <si>
     <t>select_one m_t</t>
+  </si>
+  <si>
+    <t>CROSS RIVER</t>
+  </si>
+  <si>
+    <t>AKAMKPA</t>
+  </si>
+  <si>
+    <t>BEKWARRA</t>
+  </si>
+  <si>
+    <t>BIASE</t>
+  </si>
+  <si>
+    <t>BOKI</t>
+  </si>
+  <si>
+    <t>ETUNG</t>
+  </si>
+  <si>
+    <t>IKOM</t>
+  </si>
+  <si>
+    <t>OBANLIKU</t>
+  </si>
+  <si>
+    <t>OBIANLIKU</t>
+  </si>
+  <si>
+    <t>OBUBRA</t>
+  </si>
+  <si>
+    <t>OBUDU</t>
+  </si>
+  <si>
+    <t>YAKURR</t>
+  </si>
+  <si>
+    <t>YALA</t>
+  </si>
+  <si>
+    <t>AKING</t>
+  </si>
+  <si>
+    <t>AKWA IBAMI</t>
+  </si>
+  <si>
+    <t>EKANG</t>
+  </si>
+  <si>
+    <t>EKONG</t>
+  </si>
+  <si>
+    <t>MFAMOSING</t>
+  </si>
+  <si>
+    <t>OBAN</t>
+  </si>
+  <si>
+    <t>AFRIKE</t>
+  </si>
+  <si>
+    <t>AKPARAVUNI</t>
+  </si>
+  <si>
+    <t>BANSAN</t>
+  </si>
+  <si>
+    <t>DANARE</t>
+  </si>
+  <si>
+    <t>OKWA</t>
+  </si>
+  <si>
+    <t>ABIA</t>
+  </si>
+  <si>
+    <t>EKURI EYENGYEG</t>
+  </si>
+  <si>
+    <t>ETARA</t>
+  </si>
+  <si>
+    <t>ABARAGBA</t>
+  </si>
+  <si>
+    <t>BASSINGE</t>
+  </si>
+  <si>
+    <t>BAYALUGA</t>
+  </si>
+  <si>
+    <t>BUANCHOR</t>
+  </si>
+  <si>
+    <t>KIGOL</t>
+  </si>
+  <si>
+    <t>OLD IKWETE</t>
+  </si>
+  <si>
+    <t>EDONDON</t>
+  </si>
+  <si>
+    <t>BEBI</t>
+  </si>
+  <si>
+    <t>AGOI IBAMI</t>
+  </si>
+  <si>
+    <t>OTUKPO</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>select_one site_id</t>
+  </si>
+  <si>
+    <t>community = ${s_community}</t>
+  </si>
+  <si>
+    <t>(2023 June) - 1. Human Landing Catches V2.1</t>
+  </si>
+  <si>
+    <t>ng_oncho_bsc_202306_1_capture_v2_1</t>
   </si>
 </sst>
 </file>
@@ -499,7 +487,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,14 +495,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,7 +510,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -588,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -640,6 +628,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +914,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD19"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1017,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
@@ -1037,7 +1026,7 @@
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1059,13 +1048,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1">
       <c r="A5" s="22" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>22</v>
@@ -1082,8 +1071,8 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
+      <c r="A6" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
@@ -1101,7 +1090,9 @@
         <v>16</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="22" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
@@ -1150,13 +1141,13 @@
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>34</v>
@@ -1433,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1662,46 +1653,46 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="19" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="19" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="19" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="19" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1709,10 +1700,10 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1720,13 +1711,13 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1734,13 +1725,13 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1748,13 +1739,13 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1762,13 +1753,13 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1776,13 +1767,13 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1790,13 +1781,13 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1804,13 +1795,13 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1818,13 +1809,13 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1832,13 +1823,13 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1846,55 +1837,58 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1902,13 +1896,13 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1916,13 +1910,13 @@
         <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1930,13 +1924,13 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1944,13 +1938,13 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1958,13 +1952,13 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" t="s">
         <v>104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1972,13 +1966,13 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1986,13 +1980,13 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2000,13 +1994,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
         <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2014,13 +2008,13 @@
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2028,13 +2022,13 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2042,13 +2036,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2056,13 +2050,13 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2070,13 +2064,13 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2084,13 +2078,13 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2098,13 +2092,13 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2112,13 +2106,13 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2126,13 +2120,13 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2140,13 +2134,13 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2154,13 +2148,13 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2168,13 +2162,13 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2182,13 +2176,13 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2196,13 +2190,13 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2210,158 +2204,354 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="F66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67">
+        <v>102</v>
+      </c>
+      <c r="C67">
+        <v>102</v>
+      </c>
+      <c r="F67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>103</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>104</v>
+      </c>
+      <c r="F69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70">
+        <v>105</v>
+      </c>
+      <c r="C70">
+        <v>105</v>
+      </c>
+      <c r="F70" t="s">
         <v>120</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71">
+        <v>106</v>
+      </c>
+      <c r="C71">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72">
+        <v>107</v>
+      </c>
+      <c r="C72">
+        <v>107</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>108</v>
+      </c>
+      <c r="F73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <v>109</v>
+      </c>
+      <c r="C74">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75">
+        <v>110</v>
+      </c>
+      <c r="C75">
+        <v>110</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>111</v>
+      </c>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77">
+        <v>112</v>
+      </c>
+      <c r="C77">
+        <v>112</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80">
+        <v>115</v>
+      </c>
+      <c r="C80">
+        <v>115</v>
+      </c>
+      <c r="F80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81">
+        <v>116</v>
+      </c>
+      <c r="C81">
+        <v>116</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>117</v>
+      </c>
+      <c r="F82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83">
+        <v>118</v>
+      </c>
+      <c r="C83">
+        <v>118</v>
+      </c>
+      <c r="F83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84">
+        <v>119</v>
+      </c>
+      <c r="C84">
+        <v>119</v>
+      </c>
+      <c r="F84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85">
         <v>120</v>
       </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86">
         <v>121</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C86">
         <v>121</v>
       </c>
-      <c r="E65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="F86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87">
         <v>122</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C87">
         <v>122</v>
       </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="F87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88">
         <v>123</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C88">
         <v>123</v>
       </c>
-      <c r="E70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="F88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89">
         <v>124</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C89">
         <v>124</v>
       </c>
-      <c r="E73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" t="s">
-        <v>100</v>
+      <c r="F89" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:B96">
-    <sortCondition ref="B51:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:B86">
+    <sortCondition ref="B53:B86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2372,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2395,10 +2585,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
+        <v>143</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9309E28-63ED-4063-88B4-9F21DA926BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B66C2-6515-489E-99B3-C27377166C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
     <t>community = ${s_community}</t>
   </si>
   <si>
-    <t>(2023 June) - 1. Human Landing Catches V2.1</t>
-  </si>
-  <si>
     <t>ng_oncho_bsc_202306_1_capture_v2_1</t>
+  </si>
+  <si>
+    <t>(2023 June) - 5. Human Landing Catches V2.1</t>
   </si>
 </sst>
 </file>
@@ -1426,9 +1426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2562,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B66C2-6515-489E-99B3-C27377166C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D2116-9B12-423B-9D73-C6AB469EC587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="154">
   <si>
     <t>type</t>
   </si>
@@ -428,12 +428,6 @@
     <t>ABARAGBA</t>
   </si>
   <si>
-    <t>BASSINGE</t>
-  </si>
-  <si>
-    <t>BAYALUGA</t>
-  </si>
-  <si>
     <t>BUANCHOR</t>
   </si>
   <si>
@@ -446,15 +440,9 @@
     <t>EDONDON</t>
   </si>
   <si>
-    <t>BEBI</t>
-  </si>
-  <si>
     <t>AGOI IBAMI</t>
   </si>
   <si>
-    <t>OTUKPO</t>
-  </si>
-  <si>
     <t>site_id</t>
   </si>
   <si>
@@ -464,10 +452,49 @@
     <t>community = ${s_community}</t>
   </si>
   <si>
-    <t>ng_oncho_bsc_202306_1_capture_v2_1</t>
-  </si>
-  <si>
-    <t>(2023 June) - 5. Human Landing Catches V2.1</t>
+    <t>(2023 June) - 5. Human Landing Catches V3</t>
+  </si>
+  <si>
+    <t>ng_oncho_bsc_202306_1_capture_v3</t>
+  </si>
+  <si>
+    <t>ODUKPANI</t>
+  </si>
+  <si>
+    <t>ANINGEJE</t>
+  </si>
+  <si>
+    <t>IKOT OKPORA</t>
+  </si>
+  <si>
+    <t>ABIJANG</t>
+  </si>
+  <si>
+    <t>BASSENGE</t>
+  </si>
+  <si>
+    <t>BAYULUGA</t>
+  </si>
+  <si>
+    <t>BEBI (BEMIAH)</t>
+  </si>
+  <si>
+    <t>BIKAA</t>
+  </si>
+  <si>
+    <t>BIMAH</t>
+  </si>
+  <si>
+    <t>BETUKWEL</t>
+  </si>
+  <si>
+    <t>ATAN-OKONYONG</t>
+  </si>
+  <si>
+    <t>EZELENG (SHINGILE)</t>
+  </si>
+  <si>
+    <t>UTUKPO</t>
   </si>
 </sst>
 </file>
@@ -576,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,7 +655,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1098,7 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
@@ -1091,7 +1117,7 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
@@ -1424,11 +1450,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD89"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1851,12 +1877,12 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1865,30 +1891,27 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D40" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1896,10 +1919,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>104</v>
@@ -1910,10 +1933,10 @@
         <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>104</v>
@@ -1924,10 +1947,10 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
         <v>104</v>
@@ -1938,10 +1961,10 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
         <v>104</v>
@@ -1952,10 +1975,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
         <v>104</v>
@@ -1966,13 +1989,13 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1980,13 +2003,13 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1994,13 +2017,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2008,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2022,13 +2045,13 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2036,13 +2059,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2050,13 +2073,13 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2064,13 +2087,13 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2078,13 +2101,13 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2092,13 +2115,13 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2106,13 +2129,13 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2120,13 +2143,13 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2134,13 +2157,13 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2148,13 +2171,13 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2162,13 +2185,13 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2176,13 +2199,13 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2190,13 +2213,13 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2204,354 +2227,595 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66">
-        <v>101</v>
-      </c>
-      <c r="C66">
-        <v>101</v>
-      </c>
-      <c r="F66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67">
-        <v>102</v>
-      </c>
-      <c r="C67">
-        <v>102</v>
-      </c>
-      <c r="F67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68">
-        <v>103</v>
-      </c>
-      <c r="C68">
-        <v>103</v>
-      </c>
-      <c r="F68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69">
-        <v>104</v>
-      </c>
-      <c r="C69">
-        <v>104</v>
-      </c>
-      <c r="F69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70">
-        <v>105</v>
-      </c>
-      <c r="C70">
-        <v>105</v>
-      </c>
-      <c r="F70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71">
-        <v>106</v>
-      </c>
-      <c r="C71">
-        <v>106</v>
-      </c>
-      <c r="F71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72">
-        <v>107</v>
-      </c>
-      <c r="C72">
-        <v>107</v>
-      </c>
-      <c r="F72" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73">
-        <v>108</v>
-      </c>
-      <c r="C73">
-        <v>108</v>
-      </c>
-      <c r="F73" t="s">
-        <v>123</v>
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74">
-        <v>109</v>
-      </c>
-      <c r="C74">
-        <v>109</v>
-      </c>
-      <c r="F74" t="s">
-        <v>124</v>
-      </c>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C75">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C76">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C77">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C78">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B79">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C79">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B80">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C80">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B81">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C81">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B82">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B83">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C83">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B84">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C84">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B85">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C85">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B86">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C86">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B87">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C87">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B88">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C88">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B89">
+        <v>115</v>
+      </c>
+      <c r="C89">
+        <v>115</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90">
+        <v>116</v>
+      </c>
+      <c r="C90">
+        <v>116</v>
+      </c>
+      <c r="F90" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91">
+        <v>117</v>
+      </c>
+      <c r="C91">
+        <v>117</v>
+      </c>
+      <c r="F91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92">
+        <v>118</v>
+      </c>
+      <c r="C92">
+        <v>118</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93">
+        <v>119</v>
+      </c>
+      <c r="C93">
+        <v>119</v>
+      </c>
+      <c r="F93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94">
+        <v>120</v>
+      </c>
+      <c r="C94">
+        <v>120</v>
+      </c>
+      <c r="F94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95">
+        <v>121</v>
+      </c>
+      <c r="C95">
+        <v>121</v>
+      </c>
+      <c r="F95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96">
+        <v>122</v>
+      </c>
+      <c r="C96">
+        <v>122</v>
+      </c>
+      <c r="F96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97">
+        <v>123</v>
+      </c>
+      <c r="C97">
+        <v>123</v>
+      </c>
+      <c r="F97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98">
         <v>124</v>
       </c>
-      <c r="C89">
+      <c r="C98">
         <v>124</v>
       </c>
-      <c r="F89" t="s">
-        <v>139</v>
+      <c r="F98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>201</v>
+      </c>
+      <c r="F99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100">
+        <v>202</v>
+      </c>
+      <c r="C100">
+        <v>202</v>
+      </c>
+      <c r="F100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101">
+        <v>203</v>
+      </c>
+      <c r="C101">
+        <v>203</v>
+      </c>
+      <c r="F101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102">
+        <v>204</v>
+      </c>
+      <c r="C102">
+        <v>204</v>
+      </c>
+      <c r="F102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>205</v>
+      </c>
+      <c r="C103">
+        <v>205</v>
+      </c>
+      <c r="F103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104">
+        <v>206</v>
+      </c>
+      <c r="C104">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105">
+        <v>207</v>
+      </c>
+      <c r="C105">
+        <v>207</v>
+      </c>
+      <c r="F105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106">
+        <v>208</v>
+      </c>
+      <c r="C106">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:B86">
-    <sortCondition ref="B53:B86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:B87">
+    <sortCondition ref="B54:B87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2563,7 +2827,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2585,10 +2849,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_bsc_202306_1_capture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D2116-9B12-423B-9D73-C6AB469EC587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1411C-53CD-4B00-ABFB-32C00C71DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -194,12 +194,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>nb_collected</t>
-  </si>
-  <si>
-    <t>Number of blackflies collected</t>
-  </si>
-  <si>
     <t>select_one weather</t>
   </si>
   <si>
@@ -452,12 +446,6 @@
     <t>community = ${s_community}</t>
   </si>
   <si>
-    <t>(2023 June) - 5. Human Landing Catches V3</t>
-  </si>
-  <si>
-    <t>ng_oncho_bsc_202306_1_capture_v3</t>
-  </si>
-  <si>
     <t>ODUKPANI</t>
   </si>
   <si>
@@ -495,6 +483,30 @@
   </si>
   <si>
     <t>UTUKPO</t>
+  </si>
+  <si>
+    <t>Total Number of flies caught</t>
+  </si>
+  <si>
+    <t>Number of S.Damnosum captured</t>
+  </si>
+  <si>
+    <t>The number of Other flies  captured</t>
+  </si>
+  <si>
+    <t>total_flight</t>
+  </si>
+  <si>
+    <t>s_dammnosum_caught</t>
+  </si>
+  <si>
+    <t>othe_flies_caught</t>
+  </si>
+  <si>
+    <t>(2023 June) - 1. Human Landing Catches V4</t>
+  </si>
+  <si>
+    <t>ng_oncho_bsc_202306_1_capture_v4</t>
   </si>
 </sst>
 </file>
@@ -507,6 +519,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,7 +545,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -536,12 +555,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,19 +616,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -625,35 +635,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,510 +944,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="39.625" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="37.5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="37.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="12" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
-      <c r="A3" s="9" t="s">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13" s="12" customFormat="1">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:13" s="12" customFormat="1">
+      <c r="A5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="H16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="31.5">
+      <c r="A17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="31.5">
+      <c r="A18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" s="12" customFormat="1">
+      <c r="A19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" s="12" customFormat="1">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="A13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="B20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" s="3" customFormat="1">
-      <c r="A16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1">
-      <c r="A17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" s="12" customFormat="1">
+      <c r="A21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" s="12" customFormat="1">
+      <c r="A22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1">
-      <c r="A19" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1">
-      <c r="A20" s="9" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" s="12" customFormat="1">
+      <c r="A23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1">
-      <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1">
-      <c r="B22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1">
-      <c r="B23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1">
-      <c r="B24"/>
-      <c r="D24"/>
-      <c r="G24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" s="12" customFormat="1">
+      <c r="B24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" s="12" customFormat="1">
+      <c r="B25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" s="12" customFormat="1">
+      <c r="B26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD106"/>
     </sheetView>
@@ -1467,23 +1521,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1491,10 +1545,10 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1502,10 +1556,10 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1513,10 +1567,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1524,10 +1578,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1535,10 +1589,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1546,10 +1600,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1557,10 +1611,10 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1568,10 +1622,10 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1579,10 +1633,10 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1590,10 +1644,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1601,773 +1655,773 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="19" t="s">
-        <v>93</v>
+      <c r="A20" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="10" t="s">
         <v>103</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="19"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="19" t="s">
-        <v>136</v>
+      <c r="A75" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B75">
         <v>101</v>
@@ -2376,12 +2430,12 @@
         <v>101</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="19" t="s">
-        <v>136</v>
+      <c r="A76" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B76">
         <v>102</v>
@@ -2390,12 +2444,12 @@
         <v>102</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="19" t="s">
-        <v>136</v>
+      <c r="A77" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B77">
         <v>103</v>
@@ -2404,12 +2458,12 @@
         <v>103</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="19" t="s">
-        <v>136</v>
+      <c r="A78" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B78">
         <v>104</v>
@@ -2418,12 +2472,12 @@
         <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="19" t="s">
-        <v>136</v>
+      <c r="A79" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B79">
         <v>105</v>
@@ -2432,12 +2486,12 @@
         <v>105</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="19" t="s">
-        <v>136</v>
+      <c r="A80" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B80">
         <v>106</v>
@@ -2446,12 +2500,12 @@
         <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="19" t="s">
-        <v>136</v>
+      <c r="A81" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B81">
         <v>107</v>
@@ -2460,12 +2514,12 @@
         <v>107</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="19" t="s">
-        <v>136</v>
+      <c r="A82" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B82">
         <v>108</v>
@@ -2474,12 +2528,12 @@
         <v>108</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="19" t="s">
-        <v>136</v>
+      <c r="A83" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B83">
         <v>109</v>
@@ -2488,12 +2542,12 @@
         <v>109</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="19" t="s">
-        <v>136</v>
+      <c r="A84" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B84">
         <v>110</v>
@@ -2502,12 +2556,12 @@
         <v>110</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="19" t="s">
-        <v>136</v>
+      <c r="A85" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B85">
         <v>111</v>
@@ -2516,12 +2570,12 @@
         <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="19" t="s">
-        <v>136</v>
+      <c r="A86" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B86">
         <v>112</v>
@@ -2530,12 +2584,12 @@
         <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="19" t="s">
-        <v>136</v>
+      <c r="A87" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B87">
         <v>113</v>
@@ -2544,12 +2598,12 @@
         <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="19" t="s">
-        <v>136</v>
+      <c r="A88" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B88">
         <v>114</v>
@@ -2558,12 +2612,12 @@
         <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="19" t="s">
-        <v>136</v>
+      <c r="A89" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B89">
         <v>115</v>
@@ -2572,12 +2626,12 @@
         <v>115</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="19" t="s">
-        <v>136</v>
+      <c r="A90" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B90">
         <v>116</v>
@@ -2586,12 +2640,12 @@
         <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="19" t="s">
-        <v>136</v>
+      <c r="A91" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B91">
         <v>117</v>
@@ -2600,12 +2654,12 @@
         <v>117</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="19" t="s">
-        <v>136</v>
+      <c r="A92" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B92">
         <v>118</v>
@@ -2614,12 +2668,12 @@
         <v>118</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="19" t="s">
-        <v>136</v>
+      <c r="A93" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B93">
         <v>119</v>
@@ -2628,12 +2682,12 @@
         <v>119</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="19" t="s">
-        <v>136</v>
+      <c r="A94" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B94">
         <v>120</v>
@@ -2642,12 +2696,12 @@
         <v>120</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="19" t="s">
-        <v>136</v>
+      <c r="A95" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B95">
         <v>121</v>
@@ -2656,12 +2710,12 @@
         <v>121</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="19" t="s">
-        <v>136</v>
+      <c r="A96" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B96">
         <v>122</v>
@@ -2670,12 +2724,12 @@
         <v>122</v>
       </c>
       <c r="F96" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="19" t="s">
-        <v>136</v>
+      <c r="A97" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B97">
         <v>123</v>
@@ -2684,12 +2738,12 @@
         <v>123</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="19" t="s">
-        <v>136</v>
+      <c r="A98" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B98">
         <v>124</v>
@@ -2698,12 +2752,12 @@
         <v>124</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="19" t="s">
-        <v>136</v>
+      <c r="A99" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B99">
         <v>201</v>
@@ -2712,12 +2766,12 @@
         <v>201</v>
       </c>
       <c r="F99" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="19" t="s">
-        <v>136</v>
+      <c r="A100" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B100">
         <v>202</v>
@@ -2726,12 +2780,12 @@
         <v>202</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="19" t="s">
-        <v>136</v>
+      <c r="A101" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B101">
         <v>203</v>
@@ -2740,12 +2794,12 @@
         <v>203</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="19" t="s">
-        <v>136</v>
+      <c r="A102" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B102">
         <v>204</v>
@@ -2754,12 +2808,12 @@
         <v>204</v>
       </c>
       <c r="F102" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="19" t="s">
-        <v>136</v>
+      <c r="A103" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B103">
         <v>205</v>
@@ -2768,12 +2822,12 @@
         <v>205</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="19" t="s">
-        <v>136</v>
+      <c r="A104" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B104">
         <v>206</v>
@@ -2782,12 +2836,12 @@
         <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="19" t="s">
-        <v>136</v>
+      <c r="A105" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B105">
         <v>207</v>
@@ -2796,12 +2850,12 @@
         <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="19" t="s">
-        <v>136</v>
+      <c r="A106" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B106">
         <v>208</v>
@@ -2810,7 +2864,7 @@
         <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2826,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2838,24 +2892,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
